--- a/Capstone Codes/Data/Singapore_Device_Priority_2022 - Imputed.xlsx
+++ b/Capstone Codes/Data/Singapore_Device_Priority_2022 - Imputed.xlsx
@@ -68578,6 +68578,9 @@
       <c r="J943" t="s">
         <v>1340</v>
       </c>
+      <c r="M943" s="2">
+        <v>44896</v>
+      </c>
       <c r="P943">
         <v>1</v>
       </c>
@@ -68603,7 +68606,7 @@
         <v>1</v>
       </c>
       <c r="Z943">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA943">
         <v>0</v>
@@ -68643,6 +68646,9 @@
       <c r="J944" t="s">
         <v>1340</v>
       </c>
+      <c r="M944" s="2">
+        <v>44896</v>
+      </c>
       <c r="P944">
         <v>5</v>
       </c>
@@ -68668,7 +68674,7 @@
         <v>1</v>
       </c>
       <c r="Z944">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA944">
         <v>0</v>
@@ -68708,6 +68714,9 @@
       <c r="J945" t="s">
         <v>1340</v>
       </c>
+      <c r="M945" s="2">
+        <v>44896</v>
+      </c>
       <c r="P945">
         <v>6</v>
       </c>
@@ -68733,7 +68742,7 @@
         <v>1</v>
       </c>
       <c r="Z945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA945">
         <v>0</v>
@@ -68770,6 +68779,9 @@
       <c r="J946" t="s">
         <v>1340</v>
       </c>
+      <c r="M946" s="2">
+        <v>44896</v>
+      </c>
       <c r="P946">
         <v>14</v>
       </c>
@@ -68795,7 +68807,7 @@
         <v>1</v>
       </c>
       <c r="Z946">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA946">
         <v>0</v>
@@ -68832,6 +68844,9 @@
       <c r="J947" t="s">
         <v>1340</v>
       </c>
+      <c r="M947" s="2">
+        <v>44896</v>
+      </c>
       <c r="P947">
         <v>26</v>
       </c>
@@ -68857,7 +68872,7 @@
         <v>1</v>
       </c>
       <c r="Z947">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA947">
         <v>0</v>
@@ -68894,6 +68909,9 @@
       <c r="J948" t="s">
         <v>1340</v>
       </c>
+      <c r="M948" s="2">
+        <v>44896</v>
+      </c>
       <c r="P948">
         <v>35</v>
       </c>
@@ -68919,7 +68937,7 @@
         <v>1</v>
       </c>
       <c r="Z948">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA948">
         <v>0</v>
@@ -68956,6 +68974,9 @@
       <c r="J949" t="s">
         <v>1345</v>
       </c>
+      <c r="M949" s="2">
+        <v>44896</v>
+      </c>
       <c r="P949">
         <v>47</v>
       </c>
@@ -68981,7 +69002,7 @@
         <v>1</v>
       </c>
       <c r="Z949">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA949">
         <v>0</v>
@@ -69018,6 +69039,9 @@
       <c r="J950" t="s">
         <v>1345</v>
       </c>
+      <c r="M950" s="2">
+        <v>44896</v>
+      </c>
       <c r="P950">
         <v>47</v>
       </c>
@@ -69043,7 +69067,7 @@
         <v>1</v>
       </c>
       <c r="Z950">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA950">
         <v>0</v>
@@ -69080,6 +69104,9 @@
       <c r="J951" t="s">
         <v>1341</v>
       </c>
+      <c r="M951" s="2">
+        <v>44896</v>
+      </c>
       <c r="P951">
         <v>48</v>
       </c>
@@ -69105,7 +69132,7 @@
         <v>1</v>
       </c>
       <c r="Z951">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA951">
         <v>0</v>
@@ -69145,6 +69172,9 @@
       <c r="J952" t="s">
         <v>1343</v>
       </c>
+      <c r="M952" s="2">
+        <v>44896</v>
+      </c>
       <c r="P952">
         <v>50</v>
       </c>
@@ -69170,7 +69200,7 @@
         <v>1</v>
       </c>
       <c r="Z952">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA952">
         <v>0</v>
@@ -69210,6 +69240,9 @@
       <c r="J953" t="s">
         <v>1338</v>
       </c>
+      <c r="M953" s="2">
+        <v>44896</v>
+      </c>
       <c r="P953">
         <v>51</v>
       </c>
@@ -69235,7 +69268,7 @@
         <v>1</v>
       </c>
       <c r="Z953">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA953">
         <v>0</v>
@@ -69275,6 +69308,9 @@
       <c r="J954" t="s">
         <v>1347</v>
       </c>
+      <c r="M954" s="2">
+        <v>44474</v>
+      </c>
       <c r="P954">
         <v>1</v>
       </c>
@@ -69297,7 +69333,7 @@
         <v>1</v>
       </c>
       <c r="Z954">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA954">
         <v>0</v>
@@ -69337,6 +69373,9 @@
       <c r="J955" t="s">
         <v>1347</v>
       </c>
+      <c r="M955" s="2">
+        <v>44599</v>
+      </c>
       <c r="P955">
         <v>1</v>
       </c>
@@ -69344,7 +69383,7 @@
         <v>2022</v>
       </c>
       <c r="R955" s="2">
-        <v>44490</v>
+        <v>44599</v>
       </c>
       <c r="U955" t="s">
         <v>1394</v>
@@ -69359,7 +69398,7 @@
         <v>1</v>
       </c>
       <c r="Z955">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA955">
         <v>0</v>
@@ -69396,6 +69435,9 @@
       <c r="J956" t="s">
         <v>1347</v>
       </c>
+      <c r="M956" s="2">
+        <v>44562</v>
+      </c>
       <c r="P956">
         <v>1</v>
       </c>
@@ -69403,7 +69445,7 @@
         <v>2022</v>
       </c>
       <c r="R956" s="2">
-        <v>44896</v>
+        <v>44562</v>
       </c>
       <c r="U956" t="s">
         <v>1412</v>
@@ -69418,7 +69460,7 @@
         <v>1</v>
       </c>
       <c r="Z956">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA956">
         <v>0</v>
@@ -69458,6 +69500,9 @@
       <c r="J957" t="s">
         <v>1347</v>
       </c>
+      <c r="M957" s="2">
+        <v>44581</v>
+      </c>
       <c r="P957">
         <v>4</v>
       </c>
@@ -69465,7 +69510,7 @@
         <v>2022</v>
       </c>
       <c r="R957" s="2">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="U957" t="s">
         <v>1386</v>
@@ -69480,7 +69525,7 @@
         <v>1</v>
       </c>
       <c r="Z957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA957">
         <v>0</v>
@@ -69517,6 +69562,9 @@
       <c r="J958" t="s">
         <v>1347</v>
       </c>
+      <c r="M958" s="2">
+        <v>44593</v>
+      </c>
       <c r="P958">
         <v>4</v>
       </c>
@@ -69524,7 +69572,7 @@
         <v>2022</v>
       </c>
       <c r="R958" s="2">
-        <v>44896</v>
+        <v>44593</v>
       </c>
       <c r="U958" t="s">
         <v>1358</v>
@@ -69539,7 +69587,7 @@
         <v>1</v>
       </c>
       <c r="Z958">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA958">
         <v>0</v>
@@ -69576,6 +69624,9 @@
       <c r="J959" t="s">
         <v>1347</v>
       </c>
+      <c r="M959" s="2">
+        <v>44593</v>
+      </c>
       <c r="P959">
         <v>5</v>
       </c>
@@ -69583,7 +69634,7 @@
         <v>2022</v>
       </c>
       <c r="R959" s="2">
-        <v>44896</v>
+        <v>44593</v>
       </c>
       <c r="U959" t="s">
         <v>1413</v>
@@ -69598,7 +69649,7 @@
         <v>1</v>
       </c>
       <c r="Z959">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA959">
         <v>0</v>
@@ -69638,6 +69689,9 @@
       <c r="J960" t="s">
         <v>1347</v>
       </c>
+      <c r="M960" s="2">
+        <v>44639</v>
+      </c>
       <c r="P960">
         <v>12</v>
       </c>
@@ -69660,7 +69714,7 @@
         <v>1</v>
       </c>
       <c r="Z960">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA960">
         <v>0</v>
@@ -69700,6 +69754,9 @@
       <c r="J961" t="s">
         <v>1347</v>
       </c>
+      <c r="M961" s="2">
+        <v>44650</v>
+      </c>
       <c r="P961">
         <v>14</v>
       </c>
@@ -69722,7 +69779,7 @@
         <v>1</v>
       </c>
       <c r="Z961">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA961">
         <v>0</v>
@@ -69762,6 +69819,9 @@
       <c r="J962" t="s">
         <v>1347</v>
       </c>
+      <c r="M962" s="2">
+        <v>44682</v>
+      </c>
       <c r="P962">
         <v>15</v>
       </c>
@@ -69769,7 +69829,7 @@
         <v>2022</v>
       </c>
       <c r="R962" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U962" t="s">
         <v>1386</v>
@@ -69784,7 +69844,7 @@
         <v>1</v>
       </c>
       <c r="Z962">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA962">
         <v>0</v>
@@ -69824,6 +69884,9 @@
       <c r="J963" t="s">
         <v>1347</v>
       </c>
+      <c r="M963" s="2">
+        <v>44669</v>
+      </c>
       <c r="P963">
         <v>15</v>
       </c>
@@ -69846,7 +69909,7 @@
         <v>1</v>
       </c>
       <c r="Z963">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA963">
         <v>0</v>
@@ -69883,6 +69946,9 @@
       <c r="J964" t="s">
         <v>1347</v>
       </c>
+      <c r="M964" s="2">
+        <v>44682</v>
+      </c>
       <c r="P964">
         <v>16</v>
       </c>
@@ -69890,7 +69956,7 @@
         <v>2022</v>
       </c>
       <c r="R964" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U964" t="s">
         <v>1358</v>
@@ -69905,7 +69971,7 @@
         <v>1</v>
       </c>
       <c r="Z964">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA964">
         <v>0</v>
@@ -69942,6 +70008,9 @@
       <c r="J965" t="s">
         <v>1347</v>
       </c>
+      <c r="M965" s="2">
+        <v>44682</v>
+      </c>
       <c r="P965">
         <v>16</v>
       </c>
@@ -69949,7 +70018,7 @@
         <v>2022</v>
       </c>
       <c r="R965" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U965" t="s">
         <v>1415</v>
@@ -69964,7 +70033,7 @@
         <v>1</v>
       </c>
       <c r="Z965">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA965">
         <v>0</v>
@@ -70001,6 +70070,9 @@
       <c r="J966" t="s">
         <v>1347</v>
       </c>
+      <c r="M966" s="2">
+        <v>44682</v>
+      </c>
       <c r="P966">
         <v>16</v>
       </c>
@@ -70008,7 +70080,7 @@
         <v>2022</v>
       </c>
       <c r="R966" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U966" t="s">
         <v>1415</v>
@@ -70023,7 +70095,7 @@
         <v>1</v>
       </c>
       <c r="Z966">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA966">
         <v>0</v>
@@ -70060,6 +70132,9 @@
       <c r="J967" t="s">
         <v>1347</v>
       </c>
+      <c r="M967" s="2">
+        <v>44675</v>
+      </c>
       <c r="P967">
         <v>16</v>
       </c>
@@ -70082,7 +70157,7 @@
         <v>1</v>
       </c>
       <c r="Z967">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA967">
         <v>0</v>
@@ -70119,6 +70194,9 @@
       <c r="J968" t="s">
         <v>1347</v>
       </c>
+      <c r="M968" s="2">
+        <v>44713</v>
+      </c>
       <c r="P968">
         <v>22</v>
       </c>
@@ -70126,7 +70204,7 @@
         <v>2022</v>
       </c>
       <c r="R968" s="2">
-        <v>44896</v>
+        <v>44713</v>
       </c>
       <c r="U968" t="s">
         <v>1416</v>
@@ -70141,7 +70219,7 @@
         <v>1</v>
       </c>
       <c r="Z968">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA968">
         <v>0</v>
@@ -70178,6 +70256,9 @@
       <c r="J969" t="s">
         <v>1347</v>
       </c>
+      <c r="M969" s="2">
+        <v>44774</v>
+      </c>
       <c r="P969">
         <v>28</v>
       </c>
@@ -70185,7 +70266,7 @@
         <v>2022</v>
       </c>
       <c r="R969" s="2">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="U969" t="s">
         <v>1358</v>
@@ -70200,7 +70281,7 @@
         <v>1</v>
       </c>
       <c r="Z969">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA969">
         <v>0</v>
@@ -70237,6 +70318,9 @@
       <c r="J970" t="s">
         <v>1347</v>
       </c>
+      <c r="M970" s="2">
+        <v>44774</v>
+      </c>
       <c r="P970">
         <v>29</v>
       </c>
@@ -70244,7 +70328,7 @@
         <v>2022</v>
       </c>
       <c r="R970" s="2">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="U970" t="s">
         <v>1386</v>
@@ -70259,7 +70343,7 @@
         <v>1</v>
       </c>
       <c r="Z970">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA970">
         <v>0</v>
@@ -70296,6 +70380,9 @@
       <c r="J971" t="s">
         <v>1347</v>
       </c>
+      <c r="M971" s="2">
+        <v>44805</v>
+      </c>
       <c r="P971">
         <v>32</v>
       </c>
@@ -70303,7 +70390,7 @@
         <v>2022</v>
       </c>
       <c r="R971" s="2">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="U971" t="s">
         <v>1358</v>
@@ -70318,7 +70405,7 @@
         <v>1</v>
       </c>
       <c r="Z971">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA971">
         <v>0</v>
@@ -70355,6 +70442,9 @@
       <c r="J972" t="s">
         <v>1347</v>
       </c>
+      <c r="M972" s="2">
+        <v>44805</v>
+      </c>
       <c r="P972">
         <v>34</v>
       </c>
@@ -70362,7 +70452,7 @@
         <v>2022</v>
       </c>
       <c r="R972" s="2">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="U972" t="s">
         <v>1386</v>
@@ -70377,7 +70467,7 @@
         <v>1</v>
       </c>
       <c r="Z972">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA972">
         <v>0</v>
@@ -70414,6 +70504,9 @@
       <c r="J973" t="s">
         <v>1347</v>
       </c>
+      <c r="M973" s="2">
+        <v>44818</v>
+      </c>
       <c r="P973">
         <v>37</v>
       </c>
@@ -70436,7 +70529,7 @@
         <v>1</v>
       </c>
       <c r="Z973">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA973">
         <v>0</v>
@@ -70476,6 +70569,9 @@
       <c r="J974" t="s">
         <v>1347</v>
       </c>
+      <c r="M974" s="2">
+        <v>44846</v>
+      </c>
       <c r="P974">
         <v>42</v>
       </c>
@@ -70498,7 +70594,7 @@
         <v>1</v>
       </c>
       <c r="Z974">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA974">
         <v>0</v>
@@ -70535,6 +70631,9 @@
       <c r="J975" t="s">
         <v>1347</v>
       </c>
+      <c r="M975" s="2">
+        <v>44902</v>
+      </c>
       <c r="P975">
         <v>48</v>
       </c>
@@ -70542,7 +70641,7 @@
         <v>2022</v>
       </c>
       <c r="R975" s="2">
-        <v>44893</v>
+        <v>44902</v>
       </c>
       <c r="U975" t="s">
         <v>1358</v>
@@ -70557,7 +70656,7 @@
         <v>1</v>
       </c>
       <c r="Z975">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA975">
         <v>0</v>
@@ -70594,6 +70693,9 @@
       <c r="J976" t="s">
         <v>1347</v>
       </c>
+      <c r="M976" s="2">
+        <v>44907</v>
+      </c>
       <c r="P976">
         <v>51</v>
       </c>
@@ -70616,7 +70718,7 @@
         <v>1</v>
       </c>
       <c r="Z976">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA976">
         <v>0</v>
@@ -70653,6 +70755,9 @@
       <c r="J977" t="s">
         <v>1347</v>
       </c>
+      <c r="M977" s="2">
+        <v>44923</v>
+      </c>
       <c r="P977">
         <v>53</v>
       </c>
@@ -70675,7 +70780,7 @@
         <v>1</v>
       </c>
       <c r="Z977">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA977">
         <v>0</v>
@@ -70712,6 +70817,9 @@
       <c r="J978" t="s">
         <v>1347</v>
       </c>
+      <c r="M978" s="2">
+        <v>44922</v>
+      </c>
       <c r="P978">
         <v>53</v>
       </c>
@@ -70734,7 +70842,7 @@
         <v>1</v>
       </c>
       <c r="Z978">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA978">
         <v>0</v>
